--- a/data/twitter_ita_julen.xlsx
+++ b/data/twitter_ita_julen.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miEKFKoblrgE7bny0ukjkIdSMOW9A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhWVuuyJxLkol9/cdopM7Wig3WmCQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>index</t>
   </si>
@@ -33,14 +33,32 @@
     <t>just put a CD into my MacBook to burn it and my computer is literally trembling with reawakened recognition 😆</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>anger</t>
+  </si>
+  <si>
     <t>oh yeah tesla well what about a car that just logs into your tiktok acct and drives you to starbucks</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>joy</t>
   </si>
   <si>
     <t>#100DaysOfCode Haven’t updated in a while due to not feeling well, just been reviewing some HTML/CSS &amp;amp; JavaScript until I feel better to take on new concepts
 Also been watching mock interviews  :)</t>
   </si>
   <si>
+    <t>sadness</t>
+  </si>
+  <si>
     <t>Finally managed to move my business email from google hosting to another host. So stressful and difficult. The whole internet is so hard! At least the metaverse is coming, I'm confident that will make everything easy and good, phew.</t>
+  </si>
+  <si>
+    <t>optimism</t>
   </si>
   <si>
     <t>why do I have to take a thermodynamics class when some people are about to meet ateez life is so unfair</t>
@@ -52,6 +70,9 @@
   </si>
   <si>
     <t>You are currently using Linux &amp;lt;3.</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>All the software I create will be free and open source, but that doesn't necessarily mean I won't write cryptic software for some of my projects 😈</t>
@@ -152,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -164,6 +185,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -382,8 +406,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="47.57"/>
-    <col customWidth="1" min="3" max="4" width="16.57"/>
+    <col customWidth="1" min="2" max="2" width="46.14"/>
+    <col customWidth="1" min="3" max="3" width="18.57"/>
+    <col customWidth="1" min="4" max="4" width="15.57"/>
     <col customWidth="1" min="5" max="26" width="8.71"/>
   </cols>
   <sheetData>
@@ -408,13 +433,25 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>1.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -422,7 +459,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -430,7 +473,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -438,7 +487,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +501,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -454,7 +515,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -462,7 +529,13 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -470,7 +543,13 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -478,7 +557,13 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -486,7 +571,13 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +585,13 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -502,7 +599,13 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -510,7 +613,13 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -518,7 +627,13 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -526,7 +641,13 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -534,7 +655,13 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -542,7 +669,13 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -550,7 +683,13 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -558,7 +697,13 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
